--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ptprz1</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +528,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.51457470708584</v>
+        <v>1.654587</v>
       </c>
       <c r="H2">
-        <v>1.51457470708584</v>
+        <v>4.963761</v>
       </c>
       <c r="I2">
-        <v>0.04941000534397749</v>
+        <v>0.05277312046682094</v>
       </c>
       <c r="J2">
-        <v>0.04941000534397749</v>
+        <v>0.07150718413853953</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.1567672601022</v>
+        <v>0.006601</v>
       </c>
       <c r="N2">
-        <v>5.1567672601022</v>
+        <v>0.019803</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0009255397585646605</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.001383055057785483</v>
       </c>
       <c r="Q2">
-        <v>7.810309262479138</v>
+        <v>0.010921928787</v>
       </c>
       <c r="R2">
-        <v>7.810309262479138</v>
+        <v>0.098297359083</v>
       </c>
       <c r="S2">
-        <v>0.04941000534397749</v>
+        <v>4.88436211755652E-05</v>
       </c>
       <c r="T2">
-        <v>0.04941000534397749</v>
+        <v>9.889837269080499E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.58659150398402</v>
+        <v>1.654587</v>
       </c>
       <c r="H3">
-        <v>4.58659150398402</v>
+        <v>4.963761</v>
       </c>
       <c r="I3">
-        <v>0.1496284796400262</v>
+        <v>0.05277312046682094</v>
       </c>
       <c r="J3">
-        <v>0.1496284796400262</v>
+        <v>0.07150718413853953</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.1567672601022</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N3">
-        <v>5.1567672601022</v>
+        <v>0.049159</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.00229756142964602</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.003433298166221107</v>
       </c>
       <c r="Q3">
-        <v>23.6519849032077</v>
+        <v>0.027112614111</v>
       </c>
       <c r="R3">
-        <v>23.6519849032077</v>
+        <v>0.244013526999</v>
       </c>
       <c r="S3">
-        <v>0.1496284796400262</v>
+        <v>0.0001212494861066308</v>
       </c>
       <c r="T3">
-        <v>0.1496284796400262</v>
+        <v>0.0002455054841744828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,613 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.654587</v>
+      </c>
+      <c r="H4">
+        <v>4.963761</v>
+      </c>
+      <c r="I4">
+        <v>0.05277312046682094</v>
+      </c>
+      <c r="J4">
+        <v>0.07150718413853953</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P4">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q4">
+        <v>0.051632490393</v>
+      </c>
+      <c r="R4">
+        <v>0.464692413537</v>
+      </c>
+      <c r="S4">
+        <v>0.0002309040692618738</v>
+      </c>
+      <c r="T4">
+        <v>0.0004675336543046554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>24.5520323980343</v>
-      </c>
-      <c r="H4">
-        <v>24.5520323980343</v>
-      </c>
-      <c r="I4">
-        <v>0.8009615150159963</v>
-      </c>
-      <c r="J4">
-        <v>0.8009615150159963</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>5.1567672601022</v>
-      </c>
-      <c r="N4">
-        <v>5.1567672601022</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>126.6091168391518</v>
-      </c>
-      <c r="R4">
-        <v>126.6091168391518</v>
-      </c>
-      <c r="S4">
-        <v>0.8009615150159963</v>
-      </c>
-      <c r="T4">
-        <v>0.8009615150159963</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.654587</v>
+      </c>
+      <c r="H5">
+        <v>4.963761</v>
+      </c>
+      <c r="I5">
+        <v>0.05277312046682094</v>
+      </c>
+      <c r="J5">
+        <v>0.07150718413853953</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>7.0778615</v>
+      </c>
+      <c r="N5">
+        <v>14.155723</v>
+      </c>
+      <c r="O5">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P5">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q5">
+        <v>11.7109376257005</v>
+      </c>
+      <c r="R5">
+        <v>70.265625754203</v>
+      </c>
+      <c r="S5">
+        <v>0.05237212329027687</v>
+      </c>
+      <c r="T5">
+        <v>0.07069524662736959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.055996666666666</v>
+      </c>
+      <c r="H6">
+        <v>15.16799</v>
+      </c>
+      <c r="I6">
+        <v>0.1612612217851615</v>
+      </c>
+      <c r="J6">
+        <v>0.2185077512679451</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.006601</v>
+      </c>
+      <c r="N6">
+        <v>0.019803</v>
+      </c>
+      <c r="O6">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P6">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q6">
+        <v>0.03337463399666667</v>
+      </c>
+      <c r="R6">
+        <v>0.30037170597</v>
+      </c>
+      <c r="S6">
+        <v>0.0001492536722768806</v>
+      </c>
+      <c r="T6">
+        <v>0.0003022082505564638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.055996666666666</v>
+      </c>
+      <c r="H7">
+        <v>15.16799</v>
+      </c>
+      <c r="I7">
+        <v>0.1612612217851615</v>
+      </c>
+      <c r="J7">
+        <v>0.2185077512679451</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.049159</v>
+      </c>
+      <c r="O7">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P7">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q7">
+        <v>0.08284924671222221</v>
+      </c>
+      <c r="R7">
+        <v>0.74564322041</v>
+      </c>
+      <c r="S7">
+        <v>0.0003705075632711797</v>
+      </c>
+      <c r="T7">
+        <v>0.0007502022617333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.055996666666666</v>
+      </c>
+      <c r="H8">
+        <v>15.16799</v>
+      </c>
+      <c r="I8">
+        <v>0.1612612217851615</v>
+      </c>
+      <c r="J8">
+        <v>0.2185077512679451</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P8">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q8">
+        <v>0.1577757466477778</v>
+      </c>
+      <c r="R8">
+        <v>1.41998171983</v>
+      </c>
+      <c r="S8">
+        <v>0.0007055840548171858</v>
+      </c>
+      <c r="T8">
+        <v>0.001428663828326237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.055996666666666</v>
+      </c>
+      <c r="H9">
+        <v>15.16799</v>
+      </c>
+      <c r="I9">
+        <v>0.1612612217851615</v>
+      </c>
+      <c r="J9">
+        <v>0.2185077512679451</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.0778615</v>
+      </c>
+      <c r="N9">
+        <v>14.155723</v>
+      </c>
+      <c r="O9">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P9">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q9">
+        <v>35.78564415112833</v>
+      </c>
+      <c r="R9">
+        <v>214.71386490677</v>
+      </c>
+      <c r="S9">
+        <v>0.1600358764947963</v>
+      </c>
+      <c r="T9">
+        <v>0.216026676927329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>24.6422525</v>
+      </c>
+      <c r="H10">
+        <v>49.284505</v>
+      </c>
+      <c r="I10">
+        <v>0.7859656577480176</v>
+      </c>
+      <c r="J10">
+        <v>0.7099850645935153</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.006601</v>
+      </c>
+      <c r="N10">
+        <v>0.019803</v>
+      </c>
+      <c r="O10">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P10">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q10">
+        <v>0.1626635087525</v>
+      </c>
+      <c r="R10">
+        <v>0.975981052515</v>
+      </c>
+      <c r="S10">
+        <v>0.0007274424651122148</v>
+      </c>
+      <c r="T10">
+        <v>0.0009819484345382145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>24.6422525</v>
+      </c>
+      <c r="H11">
+        <v>49.284505</v>
+      </c>
+      <c r="I11">
+        <v>0.7859656577480176</v>
+      </c>
+      <c r="J11">
+        <v>0.7099850645935153</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.049159</v>
+      </c>
+      <c r="O11">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P11">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q11">
+        <v>0.4037961635491666</v>
+      </c>
+      <c r="R11">
+        <v>2.422776981295</v>
+      </c>
+      <c r="S11">
+        <v>0.00180580438026821</v>
+      </c>
+      <c r="T11">
+        <v>0.00243759042031329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>24.6422525</v>
+      </c>
+      <c r="H12">
+        <v>49.284505</v>
+      </c>
+      <c r="I12">
+        <v>0.7859656577480176</v>
+      </c>
+      <c r="J12">
+        <v>0.7099850645935153</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P12">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q12">
+        <v>0.7689779174308333</v>
+      </c>
+      <c r="R12">
+        <v>4.613867504585</v>
+      </c>
+      <c r="S12">
+        <v>0.003438922448942596</v>
+      </c>
+      <c r="T12">
+        <v>0.004642077796099784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>24.6422525</v>
+      </c>
+      <c r="H13">
+        <v>49.284505</v>
+      </c>
+      <c r="I13">
+        <v>0.7859656577480176</v>
+      </c>
+      <c r="J13">
+        <v>0.7099850645935153</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.0778615</v>
+      </c>
+      <c r="N13">
+        <v>14.155723</v>
+      </c>
+      <c r="O13">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P13">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q13">
+        <v>174.4144502430287</v>
+      </c>
+      <c r="R13">
+        <v>697.657800972115</v>
+      </c>
+      <c r="S13">
+        <v>0.7799934884536946</v>
+      </c>
+      <c r="T13">
+        <v>0.7019234479425641</v>
       </c>
     </row>
   </sheetData>
